--- a/Company Worksheet -DLSR.xlsx
+++ b/Company Worksheet -DLSR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLSR_33\Desktop\05 CFA\1 Financial Module\1.1 Getting Started - Introduction Downloadable Files\DAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1C1C21-A636-44D4-951B-FCEAB7D4E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E623B3BB-1DD1-44AD-BB80-0CD663258A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="210">
   <si>
     <t>Pricing Case</t>
   </si>
@@ -764,15 +764,6 @@
     <t>Financial Model Worksheet - Vertical Orientation</t>
   </si>
   <si>
-    <t>Data Validarion: Alt A V V</t>
-  </si>
-  <si>
-    <t>**CAPACITY Contraint - Operative Rate</t>
-  </si>
-  <si>
-    <t>Fixed Assets (PP&amp;E) Or maybe just left the Depreciation Schedule</t>
-  </si>
-  <si>
     <t>Fixed Assets (PP&amp;E) - Beginning</t>
   </si>
   <si>
@@ -791,9 +782,6 @@
     <t>***</t>
   </si>
   <si>
-    <t>MIN</t>
-  </si>
-  <si>
     <t>CFO</t>
   </si>
   <si>
@@ -807,6 +795,12 @@
   </si>
   <si>
     <t>FMV1: Financial Modeling</t>
+  </si>
+  <si>
+    <t>Fixed Assets (PP&amp;E)</t>
+  </si>
+  <si>
+    <t>CAPACITY  - Operative Rate</t>
   </si>
 </sst>
 </file>
@@ -3529,8 +3523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305FE7B-4244-47C2-A493-3F69D3B7C910}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3561,7 +3555,7 @@
     <row r="5" spans="1:10" s="521" customFormat="1"/>
     <row r="6" spans="1:10" s="521" customFormat="1" ht="22.2">
       <c r="B6" s="523" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" s="524"/>
     </row>
@@ -3580,7 +3574,7 @@
     </row>
     <row r="12" spans="1:10" s="521" customFormat="1" ht="35.1">
       <c r="B12" s="528" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="521" customFormat="1" ht="20.2" customHeight="1">
@@ -3636,7 +3630,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AF66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
@@ -5775,7 +5769,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{4924D4C9-984C-4594-998A-20C6D0FE1C6A}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{6432E141-2854-439F-993C-6CC4FD658F77}">
           <x14:colorSeries rgb="FF009966"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5786,8 +5780,104 @@
           <x14:colorLow rgb="FF5B77CC"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Summary!H62:O62</xm:f>
-              <xm:sqref>F62</xm:sqref>
+              <xm:f>Summary!H16:O16</xm:f>
+              <xm:sqref>F16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{B52FA5C1-8ABD-4858-952B-1FE363D8F282}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H12:O12</xm:f>
+              <xm:sqref>F12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{7C576C4A-CC28-42C3-BB62-0E794D368835}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H21:O21</xm:f>
+              <xm:sqref>F21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{922AC61D-B8DA-48C6-B9FA-F462165B173B}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H33:O33</xm:f>
+              <xm:sqref>F33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{64F1AC68-22C1-494C-8DB9-8B7DE5149FDB}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H37:O37</xm:f>
+              <xm:sqref>F37</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{AD712293-37A1-4BBB-9B0B-D14D90E896D3}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H42:O42</xm:f>
+              <xm:sqref>F42</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{210DCF42-6BB4-4817-B593-1DB3DE3EEC14}">
+          <x14:colorSeries rgb="FF009966"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF5B77CC"/>
+          <x14:colorLow rgb="FF5B77CC"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!H53:O53</xm:f>
+              <xm:sqref>F53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5807,7 +5897,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{210DCF42-6BB4-4817-B593-1DB3DE3EEC14}">
+        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{4924D4C9-984C-4594-998A-20C6D0FE1C6A}">
           <x14:colorSeries rgb="FF009966"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5818,104 +5908,8 @@
           <x14:colorLow rgb="FF5B77CC"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Summary!H53:O53</xm:f>
-              <xm:sqref>F53</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{AD712293-37A1-4BBB-9B0B-D14D90E896D3}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H42:O42</xm:f>
-              <xm:sqref>F42</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{64F1AC68-22C1-494C-8DB9-8B7DE5149FDB}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H37:O37</xm:f>
-              <xm:sqref>F37</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{922AC61D-B8DA-48C6-B9FA-F462165B173B}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H33:O33</xm:f>
-              <xm:sqref>F33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{7C576C4A-CC28-42C3-BB62-0E794D368835}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H21:O21</xm:f>
-              <xm:sqref>F21</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{B52FA5C1-8ABD-4858-952B-1FE363D8F282}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H12:O12</xm:f>
-              <xm:sqref>F12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="0" manualMin="0" lineWeight="1" displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{6432E141-2854-439F-993C-6CC4FD658F77}">
-          <x14:colorSeries rgb="FF009966"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF5B77CC"/>
-          <x14:colorLow rgb="FF5B77CC"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!H16:O16</xm:f>
-              <xm:sqref>F16</xm:sqref>
+              <xm:f>Summary!H62:O62</xm:f>
+              <xm:sqref>F62</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5930,8 +5924,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Q79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.3"/>
@@ -6210,7 +6204,7 @@
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="163" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="N19" s="499">
         <f>MAX(Model!K22:O22)</f>
@@ -6980,10 +6974,10 @@
     <row r="72" spans="2:15" ht="14.2" customHeight="1">
       <c r="C72" s="476"/>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G72" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J72" s="511">
         <v>0.1</v>
@@ -7116,7 +7110,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="12.3"/>
@@ -7391,11 +7385,6 @@
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="G19" s="26" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1"/>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
@@ -7755,8 +7744,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IC362"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="K353" sqref="K353"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J306" sqref="J306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="12.3"/>
@@ -10466,7 +10455,7 @@
     <row r="119" spans="1:19" ht="12.6">
       <c r="B119" s="349"/>
       <c r="C119" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G119" s="350"/>
       <c r="H119" s="255">
@@ -10510,7 +10499,7 @@
       </c>
       <c r="F120" s="352"/>
       <c r="N120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R120" s="238"/>
       <c r="S120" s="238"/>
@@ -10718,7 +10707,7 @@
     <row r="127" spans="1:19">
       <c r="B127" s="7"/>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F127" s="353"/>
       <c r="G127" s="109"/>
@@ -10874,7 +10863,7 @@
       <c r="A133" s="256"/>
       <c r="B133" s="267"/>
       <c r="C133" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F133"/>
       <c r="G133" s="302"/>
@@ -12462,7 +12451,7 @@
     </row>
     <row r="193" spans="1:237" ht="17.7">
       <c r="B193" s="247" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C193" s="247"/>
       <c r="D193" s="247"/>
@@ -13267,7 +13256,7 @@
       <c r="A202" s="539"/>
       <c r="B202" s="403"/>
       <c r="D202" s="407" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E202" s="405"/>
       <c r="F202" s="406"/>
@@ -13516,7 +13505,7 @@
     </row>
     <row r="203" spans="1:237" ht="12.75" customHeight="1">
       <c r="D203" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F203"/>
       <c r="K203" s="408">
@@ -13763,7 +13752,7 @@
     </row>
     <row r="216" spans="1:15">
       <c r="D216" s="407" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H216" s="419"/>
       <c r="I216" s="419"/>
@@ -15630,9 +15619,7 @@
       <c r="D306" t="s">
         <v>66</v>
       </c>
-      <c r="J306" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="J306" s="8"/>
       <c r="K306" s="455">
         <f>-MIN((K303+K289),K305)</f>
         <v>1.0754576226248351</v>
@@ -15747,7 +15734,7 @@
     </row>
     <row r="315" spans="3:17">
       <c r="D315" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F315"/>
       <c r="K315" s="462"/>
@@ -16465,26 +16452,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90f44690-06d1-49fb-852d-53eb500a6f07">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c7e0179-495a-4ef3-8969-463b3802bcab" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023898D8306A1034782492F3567A273F2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c5b699968f7936cc9e2b89b7e5f9cbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90f44690-06d1-49fb-852d-53eb500a6f07" xmlns:ns3="7c7e0179-495a-4ef3-8969-463b3802bcab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dadd706c7ce454de55746a2a3b085249" ns2:_="" ns3:_="">
     <xsd:import namespace="90f44690-06d1-49fb-852d-53eb500a6f07"/>
@@ -16701,10 +16668,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90f44690-06d1-49fb-852d-53eb500a6f07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c7e0179-495a-4ef3-8969-463b3802bcab" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39E450A-0AD5-4057-8FCE-28839633CB2C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B2F2C-E8EE-4BB5-A717-F682100019CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90f44690-06d1-49fb-852d-53eb500a6f07"/>
+    <ds:schemaRef ds:uri="7c7e0179-495a-4ef3-8969-463b3802bcab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16721,20 +16719,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{547B2F2C-E8EE-4BB5-A717-F682100019CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39E450A-0AD5-4057-8FCE-28839633CB2C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="90f44690-06d1-49fb-852d-53eb500a6f07"/>
-    <ds:schemaRef ds:uri="7c7e0179-495a-4ef3-8969-463b3802bcab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>